--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PIE_INFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PIE_INFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9A686-3234-4A78-BF68-1C38076235C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9060"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +81,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -200,6 +209,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -207,31 +240,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -261,31 +270,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,21 +576,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I1" s="1"/>
       <c r="J1" s="4"/>
+      <c r="L1" s="14"/>
       <c r="S1" s="1"/>
       <c r="T1" s="4"/>
       <c r="AC1" s="1"/>
@@ -589,37 +599,28 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="4"/>
       <c r="AO1" s="5"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
       <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="1:49" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="14"/>
       <c r="I2" s="1"/>
       <c r="J2" s="4"/>
       <c r="S2" s="1"/>
       <c r="T2" s="4"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="4"/>
+      <c r="AF2" s="14"/>
+      <c r="AL2" s="14"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="4"/>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
+      <c r="AQ2" s="14"/>
       <c r="AW2" s="1"/>
     </row>
-    <row r="3" spans="1:49" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I3" s="1"/>
       <c r="J3" s="4"/>
+      <c r="Q3" s="14"/>
       <c r="S3" s="1"/>
       <c r="T3" s="4"/>
       <c r="AC3" s="1"/>
@@ -627,35 +628,22 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="5"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
       <c r="AW3" s="1"/>
     </row>
-    <row r="4" spans="1:49" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
       <c r="S4" s="1"/>
       <c r="T4" s="4"/>
+      <c r="W4" s="14"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="4"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="5"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="1:49" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I5" s="1"/>
       <c r="J5" s="4"/>
       <c r="S5" s="1"/>
@@ -665,16 +653,10 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="5"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="1:49" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="14"/>
       <c r="I6" s="1"/>
       <c r="J6" s="4"/>
       <c r="S6" s="1"/>
@@ -684,54 +666,39 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
+      <c r="AU6" s="14"/>
       <c r="AW6" s="1"/>
     </row>
-    <row r="7" spans="1:49" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
       <c r="S7" s="1"/>
       <c r="T7" s="4"/>
+      <c r="W7" s="14"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="4"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
       <c r="AW7" s="1"/>
     </row>
-    <row r="8" spans="1:49" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I8" s="1"/>
       <c r="J8" s="4"/>
+      <c r="L8" s="14"/>
       <c r="S8" s="1"/>
       <c r="T8" s="4"/>
+      <c r="AA8" s="14"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="4"/>
+      <c r="AF8" s="14"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="5"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
+      <c r="AP8" s="14"/>
       <c r="AW8" s="1"/>
     </row>
-    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -772,7 +739,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="7"/>
+      <c r="AO9" s="6"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
@@ -782,41 +749,41 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="3"/>
     </row>
-    <row r="10" spans="1:49" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+    <row r="10" spans="1:49" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12" t="s">
+      <c r="M14" s="11"/>
+      <c r="N14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -826,12 +793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -839,12 +806,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,12 +819,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -865,12 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -878,12 +845,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,12 +858,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,12 +871,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,12 +884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,12 +897,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PIE_INFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istar\OneDrive\바탕 화면\PIE_Project_B\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9A686-3234-4A78-BF68-1C38076235C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D705FC8-8C71-4061-B56C-84585EF72166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>이동타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>머지 단계를 작성, 박스 안에 1이 적혀있으면 1단계인 나사 타일이 나오면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래로4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFE -4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +132,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -245,57 +265,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,6 +428,431 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>576942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0D0FA5-DEC5-AACB-C86C-5FDE661C549A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32657" y="5606143"/>
+          <a:ext cx="6008914" cy="587828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이동 제한 횟수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>: 35</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>576942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8CEC21-8DAD-929C-F67A-C8A7D7CDBF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6738257" y="5606143"/>
+          <a:ext cx="6008914" cy="587828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이동 제한 횟수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>: 40</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>576942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829FC9A9-D01D-7063-AB69-172E08B46C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13520057" y="5606143"/>
+          <a:ext cx="6008914" cy="587828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이동 제한 횟수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>: 40</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>576942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB9DDF2-B56D-FED6-3015-BA5E76F0A96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20247428" y="5606143"/>
+          <a:ext cx="6008914" cy="587828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이동 제한 횟수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>: 43</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>576942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECDE445-815A-7141-8FFB-F763D68CC7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26996571" y="5606143"/>
+          <a:ext cx="6008914" cy="587828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이동 제한 횟수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
+              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>:47 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
+            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,216 +1120,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I1" s="1"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="4"/>
-      <c r="L1" s="14"/>
-      <c r="S1" s="1"/>
+      <c r="L1" s="5"/>
+      <c r="R1" s="1">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3"/>
       <c r="T1" s="4"/>
-      <c r="AC1" s="1"/>
+      <c r="AC1" s="3"/>
       <c r="AD1" s="4"/>
-      <c r="AM1" s="1"/>
+      <c r="AM1" s="3"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="5"/>
-      <c r="AW1" s="1"/>
+      <c r="AO1" s="6"/>
+      <c r="AW1" s="3"/>
     </row>
     <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G2" s="14"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="17"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="4"/>
-      <c r="S2" s="1"/>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="3"/>
       <c r="T2" s="4"/>
-      <c r="AC2" s="1"/>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="4"/>
-      <c r="AF2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="1"/>
+      <c r="AF2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="3"/>
       <c r="AN2" s="4"/>
-      <c r="AO2" s="5"/>
-      <c r="AQ2" s="14"/>
-      <c r="AW2" s="1"/>
+      <c r="AO2" s="6"/>
+      <c r="AQ2" s="5"/>
+      <c r="AW2" s="3"/>
     </row>
     <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I3" s="1"/>
-      <c r="J3" s="4"/>
-      <c r="Q3" s="14"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="S3" s="3"/>
       <c r="T3" s="4"/>
-      <c r="AC3" s="1"/>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="4"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="3"/>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="5"/>
-      <c r="AW3" s="1"/>
+      <c r="AO3" s="6"/>
+      <c r="AW3" s="3"/>
     </row>
     <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="1"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="4"/>
-      <c r="S4" s="1"/>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="4"/>
-      <c r="W4" s="14"/>
-      <c r="AC4" s="1"/>
+      <c r="W4" s="5"/>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AM4" s="1"/>
+      <c r="AM4" s="3"/>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="5"/>
-      <c r="AW4" s="1"/>
+      <c r="AO4" s="6"/>
+      <c r="AW4" s="3"/>
     </row>
     <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I5" s="1"/>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="4"/>
-      <c r="S5" s="1"/>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="3"/>
       <c r="T5" s="4"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="4"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="3"/>
       <c r="AN5" s="4"/>
-      <c r="AO5" s="5"/>
-      <c r="AW5" s="1"/>
+      <c r="AO5" s="6"/>
+      <c r="AW5" s="3"/>
     </row>
     <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="14"/>
-      <c r="I6" s="1"/>
+      <c r="C6" s="19"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="4"/>
-      <c r="S6" s="1"/>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="4"/>
-      <c r="AC6" s="1"/>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="4"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="3"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="5"/>
-      <c r="AU6" s="14"/>
-      <c r="AW6" s="1"/>
+      <c r="AO6" s="6"/>
+      <c r="AU6" s="5"/>
+      <c r="AW6" s="3"/>
     </row>
     <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I7" s="1"/>
+      <c r="A7" s="17"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="4"/>
-      <c r="S7" s="1"/>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="3"/>
       <c r="T7" s="4"/>
-      <c r="W7" s="14"/>
-      <c r="AC7" s="1"/>
+      <c r="W7" s="5"/>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="4"/>
-      <c r="AM7" s="1"/>
+      <c r="AM7" s="3"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="5"/>
-      <c r="AW7" s="1"/>
+      <c r="AO7" s="6"/>
+      <c r="AW7" s="3"/>
     </row>
     <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="4"/>
-      <c r="L8" s="14"/>
-      <c r="S8" s="1"/>
+      <c r="L8" s="5"/>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="4"/>
-      <c r="AA8" s="14"/>
-      <c r="AC8" s="1"/>
+      <c r="AA8" s="5"/>
+      <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
-      <c r="AF8" s="14"/>
-      <c r="AM8" s="1"/>
+      <c r="AF8" s="5"/>
+      <c r="AM8" s="3"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="14"/>
-      <c r="AW8" s="1"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="5"/>
+      <c r="AW8" s="3"/>
     </row>
     <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="3"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="8"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="3"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="3"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:49" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:49" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+    </row>
+    <row r="11" spans="1:49" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="10" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istar\OneDrive\바탕 화면\PIE_Project_B\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu_103\Desktop\김정민\PIE_Project_B\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D705FC8-8C71-4061-B56C-84585EF72166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>이동타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,12 +62,24 @@
     <t>LIFE -4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>아래로3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +108,22 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -334,13 +361,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +542,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,20 +1293,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1145,14 +1321,28 @@
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
-      <c r="AC1" s="3"/>
+      <c r="W1" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="25">
+        <v>4</v>
+      </c>
       <c r="AD1" s="4"/>
-      <c r="AM1" s="3"/>
+      <c r="AK1" s="30">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="36">
+        <v>1</v>
+      </c>
       <c r="AN1" s="4"/>
       <c r="AO1" s="6"/>
       <c r="AW1" s="3"/>
     </row>
-    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="17"/>
       <c r="G2" s="5"/>
       <c r="I2" s="3"/>
@@ -1165,9 +1355,16 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
+      <c r="V2" s="24">
+        <v>1</v>
+      </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="4"/>
+      <c r="AE2" s="37"/>
       <c r="AF2" s="5"/>
+      <c r="AG2" s="32">
+        <v>2</v>
+      </c>
       <c r="AL2" s="5"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="4"/>
@@ -1175,7 +1372,7 @@
       <c r="AQ2" s="5"/>
       <c r="AW2" s="3"/>
     </row>
-    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1193,14 +1390,27 @@
       <c r="Q3" s="5"/>
       <c r="S3" s="3"/>
       <c r="T3" s="4"/>
+      <c r="X3" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>2</v>
+      </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="4"/>
+      <c r="AE3" s="38">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="27"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="6"/>
       <c r="AW3" s="3"/>
     </row>
-    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="M4" s="1">
@@ -1209,14 +1419,22 @@
       <c r="S4" s="3"/>
       <c r="T4" s="4"/>
       <c r="W4" s="5"/>
+      <c r="Y4" s="24">
+        <v>2</v>
+      </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AM4" s="3"/>
+      <c r="AI4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="25">
+        <v>1</v>
+      </c>
       <c r="AN4" s="4"/>
       <c r="AO4" s="6"/>
       <c r="AW4" s="3"/>
     </row>
-    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1239,14 +1457,26 @@
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="4"/>
+      <c r="V5" s="24">
+        <v>1</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>2</v>
+      </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="4"/>
+      <c r="AJ5" s="30">
+        <v>4</v>
+      </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="6"/>
       <c r="AW5" s="3"/>
     </row>
-    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="19"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
@@ -1255,15 +1485,25 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
+      <c r="U6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>2</v>
+      </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="4"/>
+      <c r="AK6" s="27"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="6"/>
       <c r="AU6" s="5"/>
       <c r="AW6" s="3"/>
     </row>
-    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
@@ -1276,14 +1516,23 @@
       <c r="S7" s="3"/>
       <c r="T7" s="4"/>
       <c r="W7" s="5"/>
+      <c r="Z7" s="24">
+        <v>3</v>
+      </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="4"/>
+      <c r="AG7" s="30">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="30">
+        <v>3</v>
+      </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="6"/>
       <c r="AW7" s="3"/>
     </row>
-    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -1298,17 +1547,24 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="4"/>
+      <c r="W8" s="24">
+        <v>4</v>
+      </c>
       <c r="AA8" s="5"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
+      <c r="AE8" s="27"/>
       <c r="AF8" s="5"/>
+      <c r="AL8" s="30">
+        <v>2</v>
+      </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="5"/>
       <c r="AW8" s="3"/>
     </row>
-    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1331,21 +1587,29 @@
       <c r="R9" s="7"/>
       <c r="S9" s="8"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="26">
+        <v>2</v>
+      </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="26">
+        <v>2</v>
+      </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="33">
+        <v>2</v>
+      </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
+      <c r="AI9" s="30">
+        <v>4</v>
+      </c>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -1361,7 +1625,7 @@
       <c r="AV9" s="7"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:49" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:49" ht="47.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1396,7 +1660,7 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
+      <c r="AI10" s="31"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
@@ -1412,9 +1676,9 @@
       <c r="AV10" s="22"/>
       <c r="AW10" s="22"/>
     </row>
-    <row r="11" spans="1:49" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:49" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="14" t="s">
         <v>0</v>
@@ -1451,18 +1715,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1470,12 +1734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1483,12 +1747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,12 +1760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,12 +1773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1522,12 +1786,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,12 +1799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1548,12 +1812,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1561,12 +1825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu_103\Desktop\김정민\PIE_Project_B\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR109\Desktop\김정민\PIE_Project_B\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="864" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>이동타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>오른쪽2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래로2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,9 +565,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,6 +596,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,17 +1308,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="2"/>
+    <col min="2" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1331,18 +1343,18 @@
         <v>4</v>
       </c>
       <c r="AD1" s="4"/>
-      <c r="AK1" s="30">
+      <c r="AK1" s="29">
         <v>3</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="36">
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="35">
         <v>1</v>
       </c>
       <c r="AN1" s="4"/>
       <c r="AO1" s="6"/>
       <c r="AW1" s="3"/>
     </row>
-    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="17"/>
       <c r="G2" s="5"/>
       <c r="I2" s="3"/>
@@ -1360,9 +1372,9 @@
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="37"/>
+      <c r="AE2" s="36"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="32">
+      <c r="AG2" s="31">
         <v>2</v>
       </c>
       <c r="AL2" s="5"/>
@@ -1372,7 +1384,7 @@
       <c r="AQ2" s="5"/>
       <c r="AW2" s="3"/>
     </row>
-    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1393,7 +1405,7 @@
       <c r="X3" s="24">
         <v>3</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="24">
@@ -1401,16 +1413,18 @@
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="38">
+      <c r="AE3" s="37">
         <v>4</v>
       </c>
-      <c r="AG3" s="27"/>
+      <c r="AG3" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="6"/>
       <c r="AW3" s="3"/>
     </row>
-    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="M4" s="1">
@@ -1424,7 +1438,8 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AI4" s="30">
+      <c r="AF4" s="38"/>
+      <c r="AI4" s="29">
         <v>3</v>
       </c>
       <c r="AM4" s="25">
@@ -1434,7 +1449,7 @@
       <c r="AO4" s="6"/>
       <c r="AW4" s="3"/>
     </row>
-    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1475,7 @@
       <c r="V5" s="24">
         <v>1</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="X5" s="28" t="s">
         <v>8</v>
       </c>
       <c r="AA5" s="24">
@@ -1468,7 +1483,7 @@
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="4"/>
-      <c r="AJ5" s="30">
+      <c r="AJ5" s="29">
         <v>4</v>
       </c>
       <c r="AM5" s="3"/>
@@ -1476,7 +1491,7 @@
       <c r="AO5" s="6"/>
       <c r="AW5" s="3"/>
     </row>
-    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="19"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
@@ -1485,7 +1500,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="Y6" s="24">
@@ -1496,14 +1511,16 @@
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="4"/>
-      <c r="AK6" s="27"/>
+      <c r="AK6" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="6"/>
       <c r="AU6" s="5"/>
       <c r="AW6" s="3"/>
     </row>
-    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
@@ -1521,10 +1538,10 @@
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="4"/>
-      <c r="AG7" s="30">
+      <c r="AG7" s="29">
         <v>3</v>
       </c>
-      <c r="AH7" s="30">
+      <c r="AH7" s="29">
         <v>3</v>
       </c>
       <c r="AM7" s="3"/>
@@ -1532,7 +1549,7 @@
       <c r="AO7" s="6"/>
       <c r="AW7" s="3"/>
     </row>
-    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -1553,9 +1570,11 @@
       <c r="AA8" s="5"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="27"/>
+      <c r="AE8" s="28" t="s">
+        <v>12</v>
+      </c>
       <c r="AF8" s="5"/>
-      <c r="AL8" s="30">
+      <c r="AL8" s="29">
         <v>2</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1564,7 +1583,7 @@
       <c r="AP8" s="5"/>
       <c r="AW8" s="3"/>
     </row>
-    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1601,13 +1620,13 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="33">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="32">
         <v>2</v>
       </c>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="30">
+      <c r="AI9" s="29">
         <v>4</v>
       </c>
       <c r="AJ9" s="7"/>
@@ -1625,7 +1644,7 @@
       <c r="AV9" s="7"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:49" ht="47.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1660,7 +1679,7 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
-      <c r="AI10" s="31"/>
+      <c r="AI10" s="30"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
@@ -1676,9 +1695,9 @@
       <c r="AV10" s="22"/>
       <c r="AW10" s="22"/>
     </row>
-    <row r="11" spans="1:49" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="B14" s="14" t="s">
         <v>0</v>
@@ -1726,7 +1745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,7 +1758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,7 +1771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1765,7 +1784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,7 +1797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,7 +1810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1804,7 +1823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,7 +1836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,7 +1849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR109\Desktop\김정민\PIE_Project_B\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR_104_08\Desktop\김정민1\PIE_Project_B\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="864" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="870" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,16 +502,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,6 +593,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,21 +701,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>이동 제한 횟수</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>: 35</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -767,21 +785,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>이동 제한 횟수</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>: 40</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -851,21 +869,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>이동 제한 횟수</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>: 40</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -935,21 +953,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>이동 제한 횟수</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>: 43</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1019,21 +1037,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>이동 제한 횟수</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="3200" b="1">
-              <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
             </a:rPr>
             <a:t>:47 </a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3200" b="1">
-            <a:latin typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="배달의민족 주아" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1308,17 +1326,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AY4" sqref="AY4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.69921875" style="2"/>
+    <col min="2" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1333,29 +1351,40 @@
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
-      <c r="W1" s="24">
+      <c r="W1" s="22">
         <v>3</v>
       </c>
-      <c r="Z1" s="24">
+      <c r="Z1" s="22">
         <v>3</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="23">
         <v>4</v>
       </c>
       <c r="AD1" s="4"/>
-      <c r="AK1" s="29">
+      <c r="AK1" s="27">
         <v>3</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="35">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="33">
         <v>1</v>
       </c>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="6"/>
-      <c r="AW1" s="3"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="22">
+        <v>3</v>
+      </c>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="39"/>
     </row>
-    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="17"/>
+    <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="15"/>
       <c r="G2" s="5"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
@@ -1367,24 +1396,34 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
-      <c r="V2" s="24">
+      <c r="V2" s="22">
         <v>1</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="36"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="31">
+      <c r="AG2" s="29">
         <v>2</v>
       </c>
       <c r="AL2" s="5"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="4"/>
-      <c r="AO2" s="6"/>
-      <c r="AQ2" s="5"/>
-      <c r="AW2" s="3"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="22">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="22">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="39"/>
     </row>
-    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1394,7 +1433,7 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="3"/>
       <c r="L3" s="1">
         <v>4</v>
@@ -1402,29 +1441,40 @@
       <c r="Q3" s="5"/>
       <c r="S3" s="3"/>
       <c r="T3" s="4"/>
-      <c r="X3" s="24">
+      <c r="X3" s="22">
         <v>3</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="22">
         <v>2</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="37">
+      <c r="AE3" s="35">
         <v>4</v>
       </c>
-      <c r="AG3" s="28" t="s">
+      <c r="AG3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="6"/>
-      <c r="AW3" s="3"/>
+      <c r="AO3" s="41">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="22">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="39"/>
     </row>
-    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="M4" s="1">
@@ -1433,27 +1483,36 @@
       <c r="S4" s="3"/>
       <c r="T4" s="4"/>
       <c r="W4" s="5"/>
-      <c r="Y4" s="24">
+      <c r="Y4" s="22">
         <v>2</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AF4" s="38"/>
-      <c r="AI4" s="29">
+      <c r="AF4" s="36"/>
+      <c r="AI4" s="27">
         <v>3</v>
       </c>
-      <c r="AM4" s="25">
+      <c r="AM4" s="23">
         <v>1</v>
       </c>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="6"/>
-      <c r="AW4" s="3"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="39"/>
     </row>
-    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="21" t="s">
+    <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1">
@@ -1472,27 +1531,38 @@
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="4"/>
-      <c r="V5" s="24">
+      <c r="V5" s="22">
         <v>1</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="X5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="22">
         <v>2</v>
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="4"/>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="27">
         <v>4</v>
       </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="4"/>
-      <c r="AO5" s="6"/>
-      <c r="AW5" s="3"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="22">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="22">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="39"/>
     </row>
-    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="19"/>
+    <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="17"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="L6" s="1">
@@ -1500,28 +1570,38 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="24">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="24">
+      <c r="Y6" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="22">
         <v>2</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="4"/>
-      <c r="AK6" s="28" t="s">
+      <c r="AK6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="6"/>
-      <c r="AU6" s="5"/>
-      <c r="AW6" s="3"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="22">
+        <v>4</v>
+      </c>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="39"/>
     </row>
-    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
       <c r="M7" s="1">
@@ -1533,23 +1613,34 @@
       <c r="S7" s="3"/>
       <c r="T7" s="4"/>
       <c r="W7" s="5"/>
-      <c r="Z7" s="24">
+      <c r="Z7" s="22">
         <v>3</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="4"/>
-      <c r="AG7" s="29">
+      <c r="AG7" s="27">
         <v>3</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AH7" s="27">
         <v>3</v>
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="6"/>
-      <c r="AW7" s="3"/>
+      <c r="AO7" s="41">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="22">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="39"/>
     </row>
-    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -1564,172 +1655,188 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="4"/>
-      <c r="W8" s="24">
+      <c r="W8" s="22">
         <v>4</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="28" t="s">
+      <c r="AE8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="AF8" s="5"/>
-      <c r="AL8" s="29">
+      <c r="AL8" s="27">
         <v>2</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="5"/>
-      <c r="AW8" s="3"/>
+      <c r="AO8" s="41">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+    <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="7"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="26">
-        <v>2</v>
-      </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="26">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="8"/>
+      <c r="U9" s="24">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="24">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="7"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="32">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="29">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="30">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="27">
         <v>4</v>
       </c>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="8"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="7"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="8"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="24">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="24">
+        <v>3</v>
+      </c>
+      <c r="AW9" s="44"/>
     </row>
-    <row r="10" spans="1:49" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
+    <row r="10" spans="1:49" ht="47.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
     </row>
-    <row r="11" spans="1:49" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14" t="s">
+    <row r="11" spans="1:49" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="16"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,7 +1852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,7 +1865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,7 +1878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,7 +1891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,7 +1904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,7 +1917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,7 +1930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,7 +1943,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,7 +1956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR_104_08\Desktop\김정민1\PIE_Project_B\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\김정민 팀플\PIE_Project_B\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>이동타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,12 +86,16 @@
     <t>위로3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>아래로2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +140,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -477,13 +489,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,9 +739,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +761,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AY4" sqref="AY4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,19 +1555,19 @@
         <v>1</v>
       </c>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="38"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
       <c r="AQ1" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="22">
-        <v>3</v>
-      </c>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="15"/>
@@ -1409,19 +1595,19 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="4"/>
-      <c r="AO2" s="37"/>
+      <c r="AO2" s="36"/>
       <c r="AP2" s="22">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="53">
         <v>3</v>
       </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="39"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="38"/>
     </row>
     <row r="3" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1455,24 +1641,27 @@
       <c r="AE3" s="35">
         <v>4</v>
       </c>
+      <c r="AF3" s="57"/>
       <c r="AG3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="41">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
+      <c r="AO3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
       <c r="AU3" s="22">
-        <v>3</v>
-      </c>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="54" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:49" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I4" s="3"/>
@@ -1488,7 +1677,8 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="4"/>
-      <c r="AF4" s="36"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="56"/>
       <c r="AI4" s="27">
         <v>3</v>
       </c>
@@ -1496,17 +1686,19 @@
         <v>1</v>
       </c>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="37"/>
       <c r="AT4" s="22">
         <v>1</v>
       </c>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="38"/>
     </row>
     <row r="5" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19" t="s">
@@ -1547,19 +1739,17 @@
       </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="4"/>
-      <c r="AO5" s="37"/>
+      <c r="AO5" s="36"/>
       <c r="AP5" s="22">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="22">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="38"/>
     </row>
     <row r="6" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
@@ -1586,19 +1776,17 @@
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
       <c r="AR6" s="22">
-        <v>4</v>
-      </c>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="38"/>
     </row>
     <row r="7" spans="1:49" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
@@ -1626,19 +1814,19 @@
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="41">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
+      <c r="AO7" s="40">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
       <c r="AU7" s="22">
         <v>2</v>
       </c>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="39"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="47"/>
     </row>
     <row r="8" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
@@ -1670,21 +1858,17 @@
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="41">
-        <v>2</v>
-      </c>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
       <c r="AT8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="23">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="48"/>
     </row>
     <row r="9" spans="1:49" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -1737,19 +1921,19 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="43"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="42"/>
       <c r="AQ9" s="24">
-        <v>3</v>
-      </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
       <c r="AV9" s="24">
         <v>3</v>
       </c>
-      <c r="AW9" s="44"/>
+      <c r="AW9" s="43"/>
     </row>
     <row r="10" spans="1:49" ht="47.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\김정민 팀플\PIE_Project_B\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\기획수업 기말 게임제작\PIE_Project_B_Midterm\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA46DA2-80F0-47B1-9D05-F59DB347CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1509,10 +1510,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
@@ -2031,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2044,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2057,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2070,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2083,7 +2084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2096,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2109,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2122,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2135,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/기획/PIE_레벨디자인_엑셀시트.xlsx
+++ b/기획/PIE_레벨디자인_엑셀시트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\기획수업 기말 게임제작\PIE_Project_B_Midterm\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\기획수업 기말 게임제작\PIE_Project_B_1214_2\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA46DA2-80F0-47B1-9D05-F59DB347CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2953189-9C2C-44EC-AD4C-FED767CC4654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1513,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
